--- a/static/download/2021/RP3_Flights_2021_Jan_Dec.xlsx
+++ b/static/download/2021/RP3_Flights_2021_Jan_Dec.xlsx
@@ -1273,14 +1273,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="11.29"/>
-    <col customWidth="1" min="5" max="5" width="10.14"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="9.88"/>
+    <col customWidth="1" min="5" max="5" width="8.88"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1308,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>44578.0</v>
+        <v>44665.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1380,14 +1380,14 @@
         <v>17</v>
       </c>
       <c r="B6" s="22">
-        <v>334.0</v>
+        <v>365.0</v>
       </c>
       <c r="C6" s="23">
         <v>8820414.0</v>
       </c>
       <c r="D6" s="23">
         <f t="shared" ref="D6:D12" si="1">C6/B6</f>
-        <v>26408.42515</v>
+        <v>24165.51781</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="18" t="s">
@@ -1399,18 +1399,18 @@
         <v>18</v>
       </c>
       <c r="B7" s="25">
-        <v>335.0</v>
+        <v>366.0</v>
       </c>
       <c r="C7" s="26">
         <v>9086437.0</v>
       </c>
       <c r="D7" s="26">
         <f t="shared" si="1"/>
-        <v>27123.69254</v>
+        <v>24826.3306</v>
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E12" si="2">D7/D6-1</f>
-        <v>0.02708481795</v>
+        <v>0.0273452776</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>9</v>
@@ -1421,18 +1421,18 @@
         <v>19</v>
       </c>
       <c r="B8" s="22">
-        <v>334.0</v>
+        <v>365.0</v>
       </c>
       <c r="C8" s="26">
         <v>9425491.0</v>
       </c>
       <c r="D8" s="26">
         <f t="shared" si="1"/>
-        <v>28220.03293</v>
+        <v>25823.26301</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="2"/>
-        <v>0.04042002745</v>
+        <v>0.040156253</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>9</v>
@@ -1443,14 +1443,14 @@
         <v>20</v>
       </c>
       <c r="B9" s="22">
-        <v>334.0</v>
+        <v>365.0</v>
       </c>
       <c r="C9" s="26">
         <v>9800596.0</v>
       </c>
       <c r="D9" s="26">
         <f t="shared" si="1"/>
-        <v>29343.1018</v>
+        <v>26850.94795</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="2"/>
@@ -1465,14 +1465,14 @@
         <v>21</v>
       </c>
       <c r="B10" s="22">
-        <v>334.0</v>
+        <v>365.0</v>
       </c>
       <c r="C10" s="26">
         <v>9933936.0</v>
       </c>
       <c r="D10" s="26">
         <f t="shared" si="1"/>
-        <v>29742.32335</v>
+        <v>27216.26301</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="2"/>
@@ -1487,18 +1487,18 @@
         <v>22</v>
       </c>
       <c r="B11" s="25">
-        <v>335.0</v>
+        <v>366.0</v>
       </c>
       <c r="C11" s="26">
         <v>4433708.0</v>
       </c>
       <c r="D11" s="26">
         <f t="shared" si="1"/>
-        <v>13234.94925</v>
+        <v>12113.95628</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="2"/>
-        <v>-0.5550129324</v>
+        <v>-0.5549000876</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>9</v>
@@ -1509,18 +1509,18 @@
         <v>23</v>
       </c>
       <c r="B12" s="22">
-        <v>334.0</v>
+        <v>365.0</v>
       </c>
       <c r="C12" s="26">
         <v>5471115.0</v>
       </c>
       <c r="D12" s="26">
         <f t="shared" si="1"/>
-        <v>16380.58383</v>
+        <v>14989.35616</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="2"/>
-        <v>0.2376763611</v>
+        <v>0.2373625769</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>9</v>
@@ -1579,16 +1579,16 @@
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="17.29"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="9.29"/>
-    <col customWidth="1" min="8" max="8" width="12.0"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="15.13"/>
+    <col customWidth="1" min="4" max="4" width="12.13"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="8.13"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B2" s="33">
         <f>ERT_FLTS_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -4119,14 +4119,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.14"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="13.57"/>
-    <col customWidth="1" min="4" max="4" width="14.57"/>
-    <col customWidth="1" min="5" max="5" width="15.29"/>
-    <col customWidth="1" min="6" max="6" width="22.0"/>
+    <col customWidth="1" min="1" max="1" width="17.63"/>
+    <col customWidth="1" min="2" max="2" width="16.75"/>
+    <col customWidth="1" min="3" max="3" width="11.88"/>
+    <col customWidth="1" min="4" max="4" width="12.75"/>
+    <col customWidth="1" min="5" max="5" width="13.38"/>
+    <col customWidth="1" min="6" max="6" width="19.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B2" s="33">
         <f>ERT_FLTS_YY!B2</f>
-        <v>44578</v>
+        <v>44665</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -4846,12 +4846,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="10.86"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="140.71"/>
+    <col customWidth="1" min="1" max="1" width="12.13"/>
+    <col customWidth="1" min="2" max="2" width="9.5"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="123.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
